--- a/API_답안_예시 (1).xlsx
+++ b/API_답안_예시 (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="476">
   <si>
     <t>김선민</t>
   </si>
@@ -6226,13 +6226,10 @@
     <t>감점요인</t>
   </si>
   <si>
-    <t xml:space="preserve">모든 회원 조회의 응답 본문의 각각의 회원 정보에는 id, name, email, pw가 포함되어야 합니다 (1점 감점)
-응답 본문에 배열과 요소가 존재하나 특정 유저 조회를 위해 선택된 유저에게 id가 존재하지 않습니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회원 조회의 응답 본문의 각각의 회원 정보에는 id, name, email, pw가 포함되어야 합니다 (1점 감점)
-응답 본문에 배열과 요소가 존재하나 특정 유저 조회를 위해 선택된 유저에게 id가 존재하지 않습니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)
-존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
+    <t/>
+  </si>
+  <si>
+    <t>존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
   </si>
   <si>
     <t xml:space="preserve">모든 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
@@ -6241,7 +6238,18 @@
 존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
   </si>
   <si>
-    <t>존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
+    <t xml:space="preserve">모든 회원 조회의 응답 본문의 각각의 회원 정보에는 userId, name, email, pw가 포함되어야 합니다 (1점 감점)
+특정 회원 조회의 응답 본문에 1개의 필수 정보가 누락되었습니다 (1점 감점)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 회원 조회의 응답 본문의 각각의 회원 정보에는 userId, name, email, pw가 포함되어야 합니다 (1점 감점)
+응답 본문에 배열과 요소가 존재하나 특정 유저 조회를 위해 선택된 유저에게 id가 존재하지 않습니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)
+존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">응답 본문이 존재하지 않습니다 (3점 감점)
+응답 본문의 배열이 존재하지 않았거나 배열의 길이가 0입니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)
+존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
   </si>
 </sst>
 </file>
@@ -19457,7 +19465,7 @@
         <v>422</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>470</v>
@@ -19474,7 +19482,7 @@
         <v>424</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>471</v>
@@ -19508,10 +19516,10 @@
         <v>428</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -19525,7 +19533,7 @@
         <v>431</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>471</v>
@@ -19542,10 +19550,10 @@
         <v>433</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -19559,7 +19567,7 @@
         <v>435</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>471</v>
@@ -19576,10 +19584,10 @@
         <v>437</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -19593,10 +19601,10 @@
         <v>439</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -19610,10 +19618,10 @@
         <v>441</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
